--- a/CampVrnParams.xlsx
+++ b/CampVrnParams.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>rApDevMVeg</t>
+          <t>rVrnMVeg</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>rApDevMER</t>
+          <t>rVrnMER</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">

--- a/CampVrnParams.xlsx
+++ b/CampVrnParams.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>rVrn2</t>
+          <t>mVrn2</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">

--- a/CampVrnParams.xlsx
+++ b/CampVrnParams.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Vrn1_CL</t>
+          <t>pVrn1_CL</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>CTHS</t>
+          <t>URVrn1HS_CL</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
